--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/27.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/27.xlsx
@@ -479,13 +479,13 @@
         <v>-13.4653991252036</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.43594277049315</v>
+        <v>-10.44937547320876</v>
       </c>
       <c r="F2" t="n">
-        <v>2.880932341877046</v>
+        <v>2.869201638530859</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.98291582308133</v>
+        <v>-15.94850925121328</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.3743460056676</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.94028446056212</v>
+        <v>-10.94679133507446</v>
       </c>
       <c r="F3" t="n">
-        <v>2.743908300335541</v>
+        <v>2.731077843550649</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.53615408091027</v>
+        <v>-15.51595265762549</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.23442437998539</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.20944911468517</v>
+        <v>-11.21706883493905</v>
       </c>
       <c r="F4" t="n">
-        <v>2.867552008372802</v>
+        <v>2.861084410768989</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.9973927266704</v>
+        <v>-14.98767823796184</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.02655860891327</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.74002777964896</v>
+        <v>-11.74436133188957</v>
       </c>
       <c r="F5" t="n">
-        <v>2.909997254185678</v>
+        <v>2.91342743753021</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.36032127039201</v>
+        <v>-14.36080568559716</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.78361075446681</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.48027967462299</v>
+        <v>-12.48744116427742</v>
       </c>
       <c r="F6" t="n">
-        <v>2.936365152108914</v>
+        <v>2.938774135831792</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.87009308278642</v>
+        <v>-13.8711535593166</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.50616446577452</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.7629555852787</v>
+        <v>-12.77922931771096</v>
       </c>
       <c r="F7" t="n">
-        <v>3.162731068242358</v>
+        <v>3.176844570705738</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.21106583464246</v>
+        <v>-13.20480771388411</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.23760102635514</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.56437471912928</v>
+        <v>-13.5720991778059</v>
       </c>
       <c r="F8" t="n">
-        <v>3.298157848837172</v>
+        <v>3.318424733636164</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.92027269622488</v>
+        <v>-12.90640794751549</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.98060257060027</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.19461199332429</v>
+        <v>-14.20346239004529</v>
       </c>
       <c r="F9" t="n">
-        <v>3.465660771394215</v>
+        <v>3.477051074866517</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.31455730525242</v>
+        <v>-12.2952854354694</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.77463839755253</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.17341873837741</v>
+        <v>-15.19329285409115</v>
       </c>
       <c r="F10" t="n">
-        <v>3.63999787603464</v>
+        <v>3.658746053703991</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.97638312285064</v>
+        <v>-11.96361812757996</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.61539049882187</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.04308804694191</v>
+        <v>-16.06336802404374</v>
       </c>
       <c r="F11" t="n">
-        <v>3.812292581431755</v>
+        <v>3.827872421813409</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.49115619493059</v>
+        <v>-11.46672595782793</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.53292029250595</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.83102210886551</v>
+        <v>-16.8626792971368</v>
       </c>
       <c r="F12" t="n">
-        <v>3.84942235229089</v>
+        <v>3.862724131978084</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.25012689961441</v>
+        <v>-11.22360189405707</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.51151182572337</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.45282794003045</v>
+        <v>-17.47113097940318</v>
       </c>
       <c r="F13" t="n">
-        <v>3.719023015987298</v>
+        <v>3.732560457125643</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.66778126921444</v>
+        <v>-10.64730490756997</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-11.56519650556637</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.40495257189213</v>
+        <v>-18.41430047612112</v>
       </c>
       <c r="F14" t="n">
-        <v>3.972411445186065</v>
+        <v>3.97722941263182</v>
       </c>
       <c r="G14" t="n">
-        <v>-10.10714267692604</v>
+        <v>-10.08606406935086</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.66028965128103</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.23716480202645</v>
+        <v>-19.24464050694908</v>
       </c>
       <c r="F15" t="n">
-        <v>4.014280629673904</v>
+        <v>4.021036257940235</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.617896412033581</v>
+        <v>-9.598349603890883</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.78827660411017</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.24858447345831</v>
+        <v>-20.25624347062072</v>
       </c>
       <c r="F16" t="n">
-        <v>4.238708884986773</v>
+        <v>4.23072258025332</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.088875731107954</v>
+        <v>-9.072706737098423</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.89978127934207</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.22473348103457</v>
+        <v>-21.22609508053011</v>
       </c>
       <c r="F17" t="n">
-        <v>4.419696879470794</v>
+        <v>4.418675679849139</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.732843647630055</v>
+        <v>-8.716294976838114</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.97570938173866</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.00318871570076</v>
+        <v>-22.00011202453295</v>
       </c>
       <c r="F18" t="n">
-        <v>4.688796072079632</v>
+        <v>4.695525515740279</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.22164159087202</v>
+        <v>-8.211612886895258</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.97104486916787</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.70621919369576</v>
+        <v>-22.69429210580695</v>
       </c>
       <c r="F19" t="n">
-        <v>4.880467385682501</v>
+        <v>4.88910830555804</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.688418280734201</v>
+        <v>-7.671895794547942</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.87896798950339</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.4247902351639</v>
+        <v>-23.4160052999571</v>
       </c>
       <c r="F20" t="n">
-        <v>4.971904028729116</v>
+        <v>4.978240703304512</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.989577339648546</v>
+        <v>-6.980478189173547</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-11.67945876680213</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.11578888684736</v>
+        <v>-24.08991849643211</v>
       </c>
       <c r="F21" t="n">
-        <v>5.013458997948755</v>
+        <v>5.017962750126308</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.833189782204128</v>
+        <v>-6.820856832927222</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.39213208065194</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.8337969592933</v>
+        <v>-24.80592344654326</v>
       </c>
       <c r="F22" t="n">
-        <v>5.329166788674137</v>
+        <v>5.334927401924497</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.677771055169998</v>
+        <v>-6.67596431737784</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.02384394145381</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.37210008293371</v>
+        <v>-25.33914675668109</v>
       </c>
       <c r="F23" t="n">
-        <v>5.313796425137951</v>
+        <v>5.316283962677879</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.34677145472548</v>
+        <v>-6.338143627152783</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.61101364198491</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.8105874897088</v>
+        <v>-25.77589288717822</v>
       </c>
       <c r="F24" t="n">
-        <v>5.224533104363062</v>
+        <v>5.227203934142774</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.034336739710529</v>
+        <v>-6.036339862045313</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.16942269330281</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.15378911640181</v>
+        <v>-26.12488131172728</v>
       </c>
       <c r="F25" t="n">
-        <v>5.327386235487662</v>
+        <v>5.33715309340759</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.749487506783095</v>
+        <v>-5.746175154164138</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.734395214772805</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.48795705413402</v>
+        <v>-26.44636280800586</v>
       </c>
       <c r="F26" t="n">
-        <v>5.320342576558814</v>
+        <v>5.323798944509029</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.503496228689904</v>
+        <v>-5.496216908309904</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-9.316144946663965</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.24080056108792</v>
+        <v>-26.2085411268859</v>
       </c>
       <c r="F27" t="n">
-        <v>5.433512442322693</v>
+        <v>5.433800472985212</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.06360794551075</v>
+        <v>-5.05526814860057</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.939429109651421</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.41687894200629</v>
+        <v>-26.38350666206273</v>
       </c>
       <c r="F28" t="n">
-        <v>5.236970792062702</v>
+        <v>5.23869897603781</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.87239486250734</v>
+        <v>-4.874659830898959</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.604035496362229</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.54167477269363</v>
+        <v>-26.5097557383655</v>
       </c>
       <c r="F29" t="n">
-        <v>5.280541975919967</v>
+        <v>5.279913545383564</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.836247014361335</v>
+        <v>-4.831690892972414</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.323449441201172</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.60298602690143</v>
+        <v>-26.5683699781879</v>
       </c>
       <c r="F30" t="n">
-        <v>5.268025734403277</v>
+        <v>5.267266380838456</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.830525678019501</v>
+        <v>-4.824660326346407</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.089575336362884</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.24166465307547</v>
+        <v>-26.20128799111159</v>
       </c>
       <c r="F31" t="n">
-        <v>5.146660087060476</v>
+        <v>5.144879533874001</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.04419206039647</v>
+        <v>-5.032107864873557</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.909740411065706</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.93015949156228</v>
+        <v>-25.88370800107984</v>
       </c>
       <c r="F32" t="n">
-        <v>5.180700074448963</v>
+        <v>5.179495582587525</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.128283921548876</v>
+        <v>-5.115820049243553</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.774557649731735</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.77034175077333</v>
+        <v>-25.72843328937697</v>
       </c>
       <c r="F33" t="n">
-        <v>5.082324510896234</v>
+        <v>5.081643711148464</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.186151900109306</v>
+        <v>-5.180862609761248</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.690493097696202</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.27474571900263</v>
+        <v>-25.24009039338058</v>
       </c>
       <c r="F34" t="n">
-        <v>5.129194955069613</v>
+        <v>5.13068747759357</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.41351283125872</v>
+        <v>-5.410043371005663</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.649008658471909</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.93290569180517</v>
+        <v>-24.90651160927625</v>
       </c>
       <c r="F35" t="n">
-        <v>4.964834185194584</v>
+        <v>4.968788060652785</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.528371604089183</v>
+        <v>-5.523370344403644</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.654282348433854</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.42262009624605</v>
+        <v>-24.39022973901562</v>
       </c>
       <c r="F36" t="n">
-        <v>5.142051596460188</v>
+        <v>5.140768550781699</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.555669055514183</v>
+        <v>-5.552409072106593</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.696025824256541</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.87629139096367</v>
+        <v>-23.85517350647996</v>
       </c>
       <c r="F37" t="n">
-        <v>5.104581425727168</v>
+        <v>5.105366963897672</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.62793856720051</v>
+        <v>-5.626982829093064</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.774420841468911</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.27396690642722</v>
+        <v>-23.2515921608707</v>
       </c>
       <c r="F38" t="n">
-        <v>4.916628326131349</v>
+        <v>4.915921341777896</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.668982936609321</v>
+        <v>-5.65971358619738</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.877511486498725</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.18376093984772</v>
+        <v>-23.16290490142085</v>
       </c>
       <c r="F39" t="n">
-        <v>5.064780825088321</v>
+        <v>5.061272087926739</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.671339551120832</v>
+        <v>-5.662554615914034</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.002798896759884</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.46509825225969</v>
+        <v>-22.44422912152998</v>
       </c>
       <c r="F40" t="n">
-        <v>5.234902208213709</v>
+        <v>5.228932118117882</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.724769239017916</v>
+        <v>-5.708731168036802</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.138357059491844</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.94698345960123</v>
+        <v>-21.93033005038655</v>
       </c>
       <c r="F41" t="n">
-        <v>5.200495636345654</v>
+        <v>5.20122880530479</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.793569290451186</v>
+        <v>-5.783985724771044</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.280806587356063</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.11928807394731</v>
+        <v>-21.1137631221481</v>
       </c>
       <c r="F42" t="n">
-        <v>5.335922416940468</v>
+        <v>5.334141863753993</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.020380344881249</v>
+        <v>-6.0187961762374</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.419583425867968</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.630028716752</v>
+        <v>-20.61821945958877</v>
       </c>
       <c r="F43" t="n">
-        <v>5.326207928231907</v>
+        <v>5.323458544635145</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.119318877456173</v>
+        <v>-6.112262126224483</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.55171828124935</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.97410434438153</v>
+        <v>-19.96475644015253</v>
       </c>
       <c r="F44" t="n">
-        <v>5.191514316596229</v>
+        <v>5.204973203917524</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.139847608311999</v>
+        <v>-6.134505948752575</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.668627488703793</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.44615723228892</v>
+        <v>-19.44101195727212</v>
       </c>
       <c r="F45" t="n">
-        <v>5.11468868352098</v>
+        <v>5.128252309265009</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.118860646856713</v>
+        <v>-6.13120668843646</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.768005566923735</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.77335688155546</v>
+        <v>-18.77515052704478</v>
       </c>
       <c r="F46" t="n">
-        <v>5.341735399402194</v>
+        <v>5.347129428172985</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.335250228224761</v>
+        <v>-6.337567565827746</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.843680788471797</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.42065024299936</v>
+        <v>-18.41961595107486</v>
       </c>
       <c r="F47" t="n">
-        <v>5.368967389312984</v>
+        <v>5.375565909945214</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.575088123982341</v>
+        <v>-6.578426661206981</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.895496223068058</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.78297654079025</v>
+        <v>-17.7969853048309</v>
       </c>
       <c r="F48" t="n">
-        <v>5.274493332007089</v>
+        <v>5.283788867024715</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.729223805337982</v>
+        <v>-6.732104111963162</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.922022405300813</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.29455509097682</v>
+        <v>-17.30862931653168</v>
       </c>
       <c r="F49" t="n">
-        <v>5.294131786269678</v>
+        <v>5.306098151067015</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.042077474043868</v>
+        <v>-7.041802535684192</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.927070056728908</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.66958092252418</v>
+        <v>-16.69486215931155</v>
       </c>
       <c r="F50" t="n">
-        <v>5.161480573877309</v>
+        <v>5.165094049461626</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.24749570563055</v>
+        <v>-7.245073629604831</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.91352847154727</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.89345611776382</v>
+        <v>-15.91732338584429</v>
       </c>
       <c r="F51" t="n">
-        <v>5.089708569698967</v>
+        <v>5.098401858785873</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.312957219839181</v>
+        <v>-7.308021421667849</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.886703065681688</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.40794115918125</v>
+        <v>-15.43614197950233</v>
       </c>
       <c r="F52" t="n">
-        <v>4.997015065579546</v>
+        <v>5.009086168799618</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.555230283925321</v>
+        <v>-7.551080023924494</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.851393543367539</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.82553006726707</v>
+        <v>-14.85421530279329</v>
       </c>
       <c r="F53" t="n">
-        <v>4.936921395536024</v>
+        <v>4.954857850429189</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.81478518776254</v>
+        <v>-7.805123068265346</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.813082402624614</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.10850391753425</v>
+        <v>-14.14216422814033</v>
       </c>
       <c r="F54" t="n">
-        <v>4.776305024273729</v>
+        <v>4.793115541122505</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.100747266431521</v>
+        <v>-8.090260331855299</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.777888672645451</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.55980550543751</v>
+        <v>-13.60056184418381</v>
       </c>
       <c r="F55" t="n">
-        <v>4.854047118547898</v>
+        <v>4.867244159812358</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.414176996462443</v>
+        <v>-8.398636432989315</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.75099053203396</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.2454985911162</v>
+        <v>-13.27808533288925</v>
       </c>
       <c r="F56" t="n">
-        <v>4.7516653103256</v>
+        <v>4.76494090540711</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.447431445680428</v>
+        <v>-8.432715697286328</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.738782698571736</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.92959441584819</v>
+        <v>-12.96222043452977</v>
       </c>
       <c r="F57" t="n">
-        <v>4.676594045831143</v>
+        <v>4.686701303624956</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.789965364928507</v>
+        <v>-8.768585634387968</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.744117511514766</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.45008882426997</v>
+        <v>-12.47777904478022</v>
       </c>
       <c r="F58" t="n">
-        <v>4.57683069817719</v>
+        <v>4.584005280134456</v>
       </c>
       <c r="G58" t="n">
-        <v>-9.214758222931151</v>
+        <v>-9.201823027723526</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.771551386345871</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.13592592527991</v>
+        <v>-12.16351140736743</v>
       </c>
       <c r="F59" t="n">
-        <v>4.560648611864817</v>
+        <v>4.570494023601795</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.566247277322971</v>
+        <v>-9.554254727919949</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.819790760957069</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.80994067682377</v>
+        <v>-11.83536592894241</v>
       </c>
       <c r="F60" t="n">
-        <v>4.465231908754317</v>
+        <v>4.473113475065037</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.637273020239334</v>
+        <v>-9.631813529954334</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.890715493781929</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.65323890411116</v>
+        <v>-11.68870595250939</v>
       </c>
       <c r="F61" t="n">
-        <v>4.329438543679935</v>
+        <v>4.33213555806533</v>
       </c>
       <c r="G61" t="n">
-        <v>-10.03567179571306</v>
+        <v>-10.02219981608892</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.979227703896839</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.59441518744328</v>
+        <v>-11.63221266574734</v>
       </c>
       <c r="F62" t="n">
-        <v>4.222238768011882</v>
+        <v>4.221767445109579</v>
       </c>
       <c r="G62" t="n">
-        <v>-10.22776206300686</v>
+        <v>-10.21473522167935</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.085511254636753</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.36015461269628</v>
+        <v>-11.39397203093645</v>
       </c>
       <c r="F63" t="n">
-        <v>4.312601842225475</v>
+        <v>4.30422276840677</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.45562050166426</v>
+        <v>-10.43202817194347</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.202354871775961</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.31852108965959</v>
+        <v>-11.34790021723642</v>
       </c>
       <c r="F64" t="n">
-        <v>4.202207544664041</v>
+        <v>4.198594069079724</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.67619961994166</v>
+        <v>-10.64784169198649</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.330393010065416</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.39775570645771</v>
+        <v>-11.42629692665268</v>
       </c>
       <c r="F65" t="n">
-        <v>4.210246218608861</v>
+        <v>4.207811050280299</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.51788749397951</v>
+        <v>-10.50241239202059</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.461810169138358</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.25347852914189</v>
+        <v>-11.28695554750819</v>
       </c>
       <c r="F66" t="n">
-        <v>4.229360980757781</v>
+        <v>4.226873443217852</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.69708184297422</v>
+        <v>-10.68034987994249</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.597476591988725</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.53042001115292</v>
+        <v>-11.56309839904587</v>
       </c>
       <c r="F67" t="n">
-        <v>3.931432537291462</v>
+        <v>3.930385153064124</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.80180717340519</v>
+        <v>-10.78744491718781</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.7281457108033</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.52456775178267</v>
+        <v>-11.55399924857087</v>
       </c>
       <c r="F68" t="n">
-        <v>4.070577531893327</v>
+        <v>4.060417904888148</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.59134840522444</v>
+        <v>-10.57641008768203</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.854823394523384</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.48923162641285</v>
+        <v>-11.51631960099238</v>
       </c>
       <c r="F69" t="n">
-        <v>4.023602349297214</v>
+        <v>4.022083642167574</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.68069027981638</v>
+        <v>-10.66043648732023</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.967392032844089</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.68022214026795</v>
+        <v>-11.71449778910759</v>
       </c>
       <c r="F70" t="n">
-        <v>3.785322437577799</v>
+        <v>3.771575519593987</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.74551027118576</v>
+        <v>-10.71923401938242</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.06764647332676</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.64364224612817</v>
+        <v>-11.67167286651231</v>
       </c>
       <c r="F71" t="n">
-        <v>3.705014251946651</v>
+        <v>3.693466840840249</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.74298345673731</v>
+        <v>-10.71795097370393</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.14523112236184</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.80074988022888</v>
+        <v>-11.8344232831378</v>
       </c>
       <c r="F72" t="n">
-        <v>3.73117267302442</v>
+        <v>3.721824768795428</v>
       </c>
       <c r="G72" t="n">
-        <v>-10.91416531639288</v>
+        <v>-10.88553245007802</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.20431774462428</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.20704331431617</v>
+        <v>-12.2421961474462</v>
       </c>
       <c r="F73" t="n">
-        <v>3.848348783457868</v>
+        <v>3.83698466459125</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.69002509174253</v>
+        <v>-10.66394522448181</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.23630931660055</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.52176918232842</v>
+        <v>-12.55594009274533</v>
       </c>
       <c r="F74" t="n">
-        <v>3.830359959353337</v>
+        <v>3.81991230168564</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.60258160106264</v>
+        <v>-10.57212890465278</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.24789768871291</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.80653986143881</v>
+        <v>-12.84496577027927</v>
       </c>
       <c r="F75" t="n">
-        <v>3.78775760590636</v>
+        <v>3.776707702307943</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.5289897667893</v>
+        <v>-10.50123408476484</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.23094926348306</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.05535907694581</v>
+        <v>-13.09043335625879</v>
       </c>
       <c r="F76" t="n">
-        <v>3.803834953796</v>
+        <v>3.783777545842475</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.47633252475987</v>
+        <v>-10.44375887528966</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.19297696113593</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.49090071558151</v>
+        <v>-13.5264463177968</v>
       </c>
       <c r="F77" t="n">
-        <v>3.805746430010892</v>
+        <v>3.79199951202708</v>
       </c>
       <c r="G77" t="n">
-        <v>-10.2526243461033</v>
+        <v>-10.22341541846341</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.12474487585073</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.24207159112554</v>
+        <v>-14.27629487075382</v>
       </c>
       <c r="F78" t="n">
-        <v>3.777833640352332</v>
+        <v>3.762934599718447</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.946827428629106</v>
+        <v>-9.914554902124252</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.03339238595484</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.85323338008016</v>
+        <v>-14.88563682961343</v>
       </c>
       <c r="F79" t="n">
-        <v>3.93687893527362</v>
+        <v>3.914700574259736</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.968809405100364</v>
+        <v>-9.937544985914322</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.908421261399134</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.23026551731619</v>
+        <v>-15.27632423871338</v>
       </c>
       <c r="F80" t="n">
-        <v>3.960785480262612</v>
+        <v>3.941513610479591</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.56548792375815</v>
+        <v>-9.536724134414879</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.756870311201629</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.77947452922375</v>
+        <v>-15.82559871213515</v>
       </c>
       <c r="F81" t="n">
-        <v>3.948243054140238</v>
+        <v>3.93460087457916</v>
       </c>
       <c r="G81" t="n">
-        <v>-9.371774210911971</v>
+        <v>-9.344921897783591</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.568379104261203</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.61458015828609</v>
+        <v>-16.65354285154307</v>
       </c>
       <c r="F82" t="n">
-        <v>3.845258999987221</v>
+        <v>3.828369929321394</v>
       </c>
       <c r="G82" t="n">
-        <v>-9.136152036669428</v>
+        <v>-9.107191862783528</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.352496821235723</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.57170604983332</v>
+        <v>-17.61984644738234</v>
       </c>
       <c r="F83" t="n">
-        <v>3.948976223099375</v>
+        <v>3.924310324545563</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.946038707104723</v>
+        <v>-8.917680779149544</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.101681761181439</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.50059184415094</v>
+        <v>-18.55267302485533</v>
       </c>
       <c r="F84" t="n">
-        <v>3.877361326555133</v>
+        <v>3.862383732104199</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.645203772407541</v>
+        <v>-8.61522239889999</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.829563560390529</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.52471104933928</v>
+        <v>-19.58424175036061</v>
       </c>
       <c r="F85" t="n">
-        <v>4.029127301096422</v>
+        <v>4.016820536425199</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.439432048644132</v>
+        <v>-8.411741828133882</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.532460373797953</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.70733876503239</v>
+        <v>-20.76521983589566</v>
       </c>
       <c r="F86" t="n">
-        <v>4.032321822989803</v>
+        <v>4.01113847699189</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.295010855997052</v>
+        <v>-8.267818142994788</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.227711869646416</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.9132445951781</v>
+        <v>-21.97019611253961</v>
       </c>
       <c r="F87" t="n">
-        <v>3.993699529606711</v>
+        <v>3.969845353829086</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.139382652117455</v>
+        <v>-8.114598922838068</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.913131113192098</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.32680744069642</v>
+        <v>-23.38921844834293</v>
       </c>
       <c r="F88" t="n">
-        <v>4.207051696715479</v>
+        <v>4.180945644849078</v>
       </c>
       <c r="G88" t="n">
-        <v>-8.059218481817567</v>
+        <v>-8.036660444021273</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.605629616051331</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.83045842206866</v>
+        <v>-24.88878463122855</v>
       </c>
       <c r="F89" t="n">
-        <v>4.0794802978257</v>
+        <v>4.050310647094335</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.806720329212038</v>
+        <v>-7.780300062077434</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.300391513602226</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.47015152226927</v>
+        <v>-26.5319079147737</v>
       </c>
       <c r="F90" t="n">
-        <v>4.190319733683753</v>
+        <v>4.164213681817351</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.97824258874149</v>
+        <v>-7.961013118201779</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.011423810816246</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.15273500657938</v>
+        <v>-28.21758118255445</v>
       </c>
       <c r="F91" t="n">
-        <v>4.355230380278135</v>
+        <v>4.321085654466914</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.695016801366431</v>
+        <v>-7.66922496476823</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.730098721656123</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.12930615120045</v>
+        <v>-30.18830006780527</v>
       </c>
       <c r="F92" t="n">
-        <v>4.240463253567564</v>
+        <v>4.206239973939292</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.881922516734912</v>
+        <v>-7.861969847204121</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.466915294155917</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.97329154494336</v>
+        <v>-32.03469444527106</v>
       </c>
       <c r="F93" t="n">
-        <v>4.156175007872532</v>
+        <v>4.118442991082677</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.780182231351858</v>
+        <v>-7.744977029010457</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.210843693973859</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.9673932830695</v>
+        <v>-34.02192272440529</v>
       </c>
       <c r="F94" t="n">
-        <v>4.451327883136404</v>
+        <v>4.4135173125295</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.611291524693592</v>
+        <v>-7.583496565760607</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.971362397634853</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.04981569616592</v>
+        <v>-36.10912382803894</v>
       </c>
       <c r="F95" t="n">
-        <v>4.148529103012963</v>
+        <v>4.105560165086419</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.42498805525583</v>
+        <v>-7.384297178023746</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.739368470207955</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.30217620014795</v>
+        <v>-38.3597692403487</v>
       </c>
       <c r="F96" t="n">
-        <v>4.031248254156782</v>
+        <v>3.988645900709805</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.481834834194605</v>
+        <v>-7.454563567375289</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.525746044738296</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.24622606451017</v>
+        <v>-40.30587459625708</v>
       </c>
       <c r="F97" t="n">
-        <v>3.816848702820676</v>
+        <v>3.781132900668447</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.090388071529837</v>
+        <v>-7.064884265594155</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.327306125771763</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.80354557858453</v>
+        <v>-42.8649746635179</v>
       </c>
       <c r="F98" t="n">
-        <v>3.796450894993266</v>
+        <v>3.760342323755786</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.117305846172426</v>
+        <v>-7.095048931341491</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.156630207191396</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.93338831257368</v>
+        <v>-44.99252624450975</v>
       </c>
       <c r="F99" t="n">
-        <v>3.694749886518738</v>
+        <v>3.650655010547805</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.846347546560064</v>
+        <v>-6.830283290973266</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.017812201914734</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.19178436816574</v>
+        <v>-47.24990110048017</v>
       </c>
       <c r="F100" t="n">
-        <v>3.59221097066234</v>
+        <v>3.546597387561766</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.659350185071689</v>
+        <v>-6.642343283680288</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.919689825977809</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.56443695065754</v>
+        <v>-49.62027562227751</v>
       </c>
       <c r="F101" t="n">
-        <v>3.287212683661489</v>
+        <v>3.259561740059764</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.673908825831689</v>
+        <v>-6.658774123746654</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.875961335987454</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.96676978369155</v>
+        <v>-52.02283102445982</v>
       </c>
       <c r="F102" t="n">
-        <v>2.887976000805895</v>
+        <v>2.857104350705104</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.707097813535465</v>
+        <v>-6.693324710945969</v>
       </c>
     </row>
   </sheetData>
